--- a/_site/posts/2021-07-10-visual-assignment/data/EmployeeRecords.xlsx
+++ b/_site/posts/2021-07-10-visual-assignment/data/EmployeeRecords.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2B0F172DD22653CDCB1A2C352EDCEB589C3B4CA1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_2B0F172DD22653CDCB1A2C352EDCEB589C3B4CA1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E4705F-2BA4-4903-A84B-481D9EA7A918}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1930" yWindow="1320" windowWidth="16550" windowHeight="8060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Records" sheetId="1" r:id="rId1"/>
@@ -1144,17 +1144,18 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="19.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" customWidth="1"/>
     <col min="10" max="10" width="17.1796875" style="2" customWidth="1"/>
